--- a/business-doc/20200309系统需要批量上传的数据文件/气动执行器产品价格表(1).xlsx
+++ b/business-doc/20200309系统需要批量上传的数据文件/气动执行器产品价格表(1).xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a/IdeaProjects/fmis-process/business-doc/20200309系统需要批量上传的数据文件/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="执行器" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,6 +93,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>90°回转</t>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝合金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>双作用气缸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,22 +116,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90°回转</t>
-  </si>
-  <si>
     <t>壳体材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铝合金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,20 +125,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +146,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,16 +176,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -220,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,12 +272,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -297,12 +307,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -510,28 +520,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="13.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="13.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -551,22 +561,22 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>75</v>
       </c>
@@ -580,26 +590,26 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4">
         <v>139.30172413793102</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>76</v>
       </c>
@@ -622,7 +632,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>77</v>
       </c>
@@ -645,7 +655,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>78</v>
       </c>
@@ -668,7 +678,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>79</v>
       </c>
@@ -691,7 +701,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>80</v>
       </c>
@@ -714,7 +724,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>81</v>
       </c>
@@ -737,7 +747,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -763,7 +773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
